--- a/docs/launch kernel/调用次数相同的函数.xlsx
+++ b/docs/launch kernel/调用次数相同的函数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\计算隔离\逆向工程\open-gpu-kernel-modules-535.104.05\docs\launch kernel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C61709-77A2-4F50-8415-AD057432B327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091F944-3075-4507-8C4D-638510664A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,89 +94,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nv_get_ctl_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_acquire_mutex</t>
+  </si>
+  <si>
+    <t>os_release_mutex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_acquire_rwlock_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_acquire_rwlock_write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_release_rwlock_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_release_rwlock_write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_is_isr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_is_administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_mem_copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_memcpy_from_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_memcpy_to_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_alloc_mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_free_mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_get_tick_resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_get_current_process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv_printf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xen_support_fully_virtualized_kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_map_kernel_space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_unmap_kernel_space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_is_vgx_hyper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>nv_get_event</t>
-  </si>
-  <si>
-    <t>nv_get_ctl_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_acquire_mutex</t>
-  </si>
-  <si>
-    <t>os_release_mutex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_acquire_rwlock_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_acquire_rwlock_write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_release_rwlock_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_release_rwlock_write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_is_isr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_is_administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_mem_copy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_memcpy_from_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_memcpy_to_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_alloc_mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_free_mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_get_tick_resolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_get_current_process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nv_printf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xen_support_fully_virtualized_kernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_map_kernel_space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_unmap_kernel_space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_is_vgx_hyper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,9 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,13 +305,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,307 +599,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="6"/>
-    <col min="2" max="2" width="50.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="5"/>
+    <col min="2" max="2" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>68</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>70</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>73</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>130</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>195</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>55</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>62</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>274</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>68</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>70</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>73</v>
-      </c>
-      <c r="B31" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>645</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>657</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>130</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>195</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>2879</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>274</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>645</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>657</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>2879</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
